--- a/Healthcare/Dexcom.xlsx
+++ b/Healthcare/Dexcom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1F15DF1D-ED62-D140-9ADE-1C54CBAF4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF06E109-DCB7-0547-A52B-707E38D7A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -517,9 +553,6 @@
   </si>
   <si>
     <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>DexCom</t>
   </si>
 </sst>
 </file>
@@ -862,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,18 +958,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -946,12 +967,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -973,12 +989,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -990,10 +1000,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1001,6 +1007,27 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,6 +1044,446 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1rgxm&amp;q=XNAS%3aDXCM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>DEXCOM, INC. (XNAS:DXCM)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1rgxm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>126.44</v>
+    <v>66.892499999999998</v>
+    <v>1.1433</v>
+    <v>-1.5</v>
+    <v>-1.2238000000000001E-2</v>
+    <v>0.64</v>
+    <v>5.2859999999999999E-3</v>
+    <v>USD</v>
+    <v>DexCom, Inc. is a medical device company. The Company is primarily focused on the design, development, and commercialization of continuous glucose monitoring (CGM), systems for use by people with diabetes and by healthcare providers. Its Dexcom G6 is a CGM system that can be used as part of an integrated system with other compatible medical devices and electronic interfaces, which may include automated insulin dosing systems, insulin pumps, blood glucose meters or other electronic devices used for diabetes management. Its Dexcom Share remote monitoring system, offered for use with its Dexcom system, uses an application on the patient's mobile device to wirelessly transmit glucose information to the cloud and then to applications on the mobile devices of up to five designated recipients. Its Dexcom Real-Time API enables invited third-party developers to integrate real-time CGM data into their digital health applications and devices. Its other products include Dexcom ONE and Dexcom G7.</v>
+    <v>7500</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>6340 Sequence Dr, SAN DIEGO, CA, 92121 US</v>
+    <v>123.43</v>
+    <v>Healthcare Equipment &amp; Supplies</v>
+    <v>Stock</v>
+    <v>45057.97827078672</v>
+    <v>0</v>
+    <v>119.76</v>
+    <v>46931042092</v>
+    <v>DEXCOM, INC.</v>
+    <v>DEXCOM, INC.</v>
+    <v>122.89</v>
+    <v>177.61709999999999</v>
+    <v>122.57</v>
+    <v>121.07</v>
+    <v>121.71</v>
+    <v>387635600</v>
+    <v>DXCM</v>
+    <v>DEXCOM, INC. (XNAS:DXCM)</v>
+    <v>1730122</v>
+    <v>2264572</v>
+    <v>1999</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,10 +1786,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD118" sqref="AD118"/>
+      <selection pane="bottomRight" activeCell="AA86" sqref="AA86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1333,8 +1800,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>161</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2000</v>
@@ -2776,15 +3243,15 @@
       </c>
       <c r="AE16" s="29">
         <f>AF101/X3</f>
-        <v>16.720659495497973</v>
+        <v>16.128614369372464</v>
       </c>
       <c r="AF16" s="29">
         <f>AF101/X28</f>
-        <v>142.59605803048066</v>
+        <v>137.54701668229777</v>
       </c>
       <c r="AG16" s="30">
         <f>AF101/X106</f>
-        <v>159.67763373810305</v>
+        <v>154.02376794223827</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -7834,10 +8301,10 @@
       <c r="X83" s="1">
         <v>49300000</v>
       </c>
-      <c r="AE83" s="32" t="s">
+      <c r="AE83" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="AF83" s="33"/>
+      <c r="AF83" s="56"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7912,10 +8379,10 @@
       <c r="X84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE84" s="34" t="s">
+      <c r="AE84" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="AF84" s="35"/>
+      <c r="AF84" s="58"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8233,10 +8700,10 @@
       <c r="X88" s="1">
         <v>-364800000</v>
       </c>
-      <c r="AE88" s="36" t="s">
+      <c r="AE88" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="AF88" s="37">
+      <c r="AF88" s="33">
         <f>AF85/(AF86+AF87)</f>
         <v>6.5080475857242828E-3</v>
       </c>
@@ -8499,10 +8966,10 @@
       <c r="X91" s="1">
         <v>-2266300000</v>
       </c>
-      <c r="AE91" s="36" t="s">
+      <c r="AE91" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="AF91" s="37">
+      <c r="AF91" s="33">
         <f>AF89/AF90</f>
         <v>0.12691914022517911</v>
       </c>
@@ -8580,10 +9047,10 @@
       <c r="X92" s="1">
         <v>2127800000</v>
       </c>
-      <c r="AE92" s="38" t="s">
+      <c r="AE92" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AF92" s="39">
+      <c r="AF92" s="35">
         <f>AF88*(1-AF91)</f>
         <v>5.6820517815996041E-3</v>
       </c>
@@ -8661,10 +9128,10 @@
       <c r="X93" s="1">
         <v>-14300000</v>
       </c>
-      <c r="AE93" s="34" t="s">
+      <c r="AE93" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="AF93" s="35"/>
+      <c r="AF93" s="58"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8742,7 +9209,7 @@
       <c r="AE94" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AF94" s="40">
+      <c r="AF94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -8819,11 +9286,12 @@
       <c r="X95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE95" s="41" t="s">
+      <c r="AE95" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AF95" s="42">
-        <v>1.0900000000000001</v>
+      <c r="AF95" s="61" cm="1">
+        <f t="array" ref="AF95">_FV(A1,"Beta")</f>
+        <v>1.1433</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -8902,7 +9370,7 @@
       <c r="AE96" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="AF96" s="40">
+      <c r="AF96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8979,12 +9447,12 @@
       <c r="X97" s="1">
         <v>-557700000</v>
       </c>
-      <c r="AE97" s="38" t="s">
+      <c r="AE97" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AF97" s="39">
+      <c r="AF97" s="35">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>8.7874500000000008E-2</v>
+        <v>9.0169065000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9060,10 +9528,10 @@
       <c r="X98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE98" s="34" t="s">
+      <c r="AE98" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="AF98" s="35"/>
+      <c r="AF98" s="58"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9219,12 +9687,12 @@
       <c r="X100" s="10">
         <v>-552500000</v>
       </c>
-      <c r="AE100" s="36" t="s">
+      <c r="AE100" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AF100" s="37">
+      <c r="AF100" s="33">
         <f>AF99/AF103</f>
-        <v>5.5482460078302487E-2</v>
+        <v>5.740218891375734E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -9303,9 +9771,9 @@
       <c r="AE101" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AF101" s="57">
-        <f>Z116*X34</f>
-        <v>48653775000</v>
+      <c r="AF101" s="48" cm="1">
+        <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
+        <v>46931042092</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -9381,12 +9849,12 @@
       <c r="X102" s="10">
         <v>-410300000</v>
       </c>
-      <c r="AE102" s="36" t="s">
+      <c r="AE102" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="AF102" s="37">
+      <c r="AF102" s="33">
         <f>AF101/AF103</f>
-        <v>0.94451753992169751</v>
+        <v>0.94259781108624263</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -9462,12 +9930,12 @@
       <c r="X103" s="1">
         <v>1053600000</v>
       </c>
-      <c r="AE103" s="38" t="s">
+      <c r="AE103" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="AF103" s="43">
+      <c r="AF103" s="37">
         <f>AF99+AF101</f>
-        <v>51511775000</v>
+        <v>49789042092</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9543,10 +10011,10 @@
       <c r="X104" s="11">
         <v>643300000</v>
       </c>
-      <c r="AE104" s="34" t="s">
+      <c r="AE104" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AF104" s="35"/>
+      <c r="AF104" s="58"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -9652,7 +10120,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.3314260772984663E-2</v>
+        <v>8.5319325506478277E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9728,33 +10196,33 @@
       <c r="X106" s="1">
         <v>304700000</v>
       </c>
-      <c r="Y106" s="44">
+      <c r="Y106" s="62">
         <f>X106*(1+$AF$106)</f>
         <v>358849197.17113149</v>
       </c>
-      <c r="Z106" s="44">
+      <c r="Z106" s="62">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
         <v>422621418.80658221</v>
       </c>
-      <c r="AA106" s="44">
+      <c r="AA106" s="62">
         <f t="shared" si="9"/>
         <v>497726802.90799659</v>
       </c>
-      <c r="AB106" s="44">
+      <c r="AB106" s="62">
         <f t="shared" si="9"/>
         <v>586179401.49028087</v>
       </c>
-      <c r="AC106" s="44">
+      <c r="AC106" s="62">
         <f t="shared" si="9"/>
         <v>690351190.09859419</v>
       </c>
-      <c r="AD106" s="45" t="s">
+      <c r="AD106" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AE106" s="46" t="s">
+      <c r="AE106" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="AF106" s="47">
+      <c r="AF106" s="40">
         <f>(SUM(Y4:AC4)/5)</f>
         <v>0.17771315120161307</v>
       </c>
@@ -9784,150 +10252,151 @@
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
-      <c r="Y107" s="45"/>
-      <c r="Z107" s="45"/>
-      <c r="AA107" s="45"/>
-      <c r="AB107" s="45"/>
-      <c r="AC107" s="48">
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="41">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>12134424075.197649</v>
-      </c>
-      <c r="AD107" s="49" t="s">
+        <v>11731065689.304863</v>
+      </c>
+      <c r="AD107" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="AE107" s="50" t="s">
+      <c r="AE107" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="AF107" s="51">
+      <c r="AF107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y108" s="48">
+      <c r="Y108" s="41">
         <f t="shared" ref="Y108:AA108" si="10">Y107+Y106</f>
         <v>358849197.17113149</v>
       </c>
-      <c r="Z108" s="48">
+      <c r="Z108" s="41">
         <f t="shared" si="10"/>
         <v>422621418.80658221</v>
       </c>
-      <c r="AA108" s="48">
+      <c r="AA108" s="41">
         <f t="shared" si="10"/>
         <v>497726802.90799659</v>
       </c>
-      <c r="AB108" s="48">
+      <c r="AB108" s="41">
         <f>AB107+AB106</f>
         <v>586179401.49028087</v>
       </c>
-      <c r="AC108" s="48">
+      <c r="AC108" s="41">
         <f>AC107+AC106</f>
-        <v>12824775265.296244</v>
-      </c>
-      <c r="AD108" s="49" t="s">
+        <v>12421416879.403458</v>
+      </c>
+      <c r="AD108" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="AE108" s="52" t="s">
+      <c r="AE108" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="AF108" s="53">
+      <c r="AF108" s="46">
         <f>AF105</f>
-        <v>8.3314260772984663E-2</v>
+        <v>8.5319325506478277E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="54" t="s">
+      <c r="Y109" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="Z109" s="55"/>
+      <c r="Z109" s="60"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="56" t="s">
+      <c r="Y110" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="Z110" s="57">
+      <c r="Z110" s="48">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>10104099578.275295</v>
+        <v>9749891973.3992558</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="56" t="s">
+      <c r="Y111" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="Z111" s="57">
+      <c r="Z111" s="48">
         <f>X40</f>
         <v>2456200000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="56" t="s">
+      <c r="Y112" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="Z112" s="57">
+      <c r="Z112" s="48">
         <f>AF99</f>
         <v>2858000000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="56" t="s">
+      <c r="Y113" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="Z113" s="57">
+      <c r="Z113" s="48">
         <f>Z110+Z111-Z112</f>
-        <v>9702299578.2752953</v>
+        <v>9348091973.3992558</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="56" t="s">
+      <c r="Y114" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="Z114" s="58">
+      <c r="Z114" s="49">
         <f>X34*(1+(5*AD16))</f>
         <v>521203081.94111729</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="59" t="s">
+      <c r="Y115" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="Z115" s="60">
+      <c r="Z115" s="51">
         <f>Z113/Z114</f>
-        <v>18.615199937308521</v>
+        <v>17.935603793024679</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="61" t="s">
+      <c r="Y116" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="Z116" s="62">
-        <v>113.81</v>
+      <c r="Z116" s="63" cm="1">
+        <f t="array" ref="Z116">_FV(A1,"Price")</f>
+        <v>121.07</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="63" t="s">
+      <c r="Y117" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="Z117" s="64">
+      <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>-0.83643616608989968</v>
+        <v>-0.85185757171037679</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="63" t="s">
+      <c r="Y118" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="Z118" s="65" t="str">
+      <c r="Z118" s="54" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y109:Z109"/>
     <mergeCell ref="AE83:AF83"/>
     <mergeCell ref="AE84:AF84"/>
     <mergeCell ref="AE93:AF93"/>
     <mergeCell ref="AE98:AF98"/>
     <mergeCell ref="AE104:AF104"/>
-    <mergeCell ref="Y109:Z109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/DXCM" display="ROIC.AI | DXCM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Healthcare/Dexcom.xlsx
+++ b/Healthcare/Dexcom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF06E109-DCB7-0547-A52B-707E38D7A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AD3897-4DE9-BA49-A1AA-0A150346B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1007,6 +1007,15 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,15 +1028,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,13 +1166,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>126.44</v>
-    <v>66.892499999999998</v>
-    <v>1.1433</v>
-    <v>-1.5</v>
-    <v>-1.2238000000000001E-2</v>
-    <v>0.64</v>
-    <v>5.2859999999999999E-3</v>
+    <v>134.13999999999999</v>
+    <v>73.709999999999994</v>
+    <v>1.1449</v>
+    <v>1.52</v>
+    <v>1.2022999999999999E-2</v>
     <v>USD</v>
     <v>DexCom, Inc. is a medical device company. The Company is primarily focused on the design, development, and commercialization of continuous glucose monitoring (CGM), systems for use by people with diabetes and by healthcare providers. Its Dexcom G6 is a CGM system that can be used as part of an integrated system with other compatible medical devices and electronic interfaces, which may include automated insulin dosing systems, insulin pumps, blood glucose meters or other electronic devices used for diabetes management. Its Dexcom Share remote monitoring system, offered for use with its Dexcom system, uses an application on the patient's mobile device to wirelessly transmit glucose information to the cloud and then to applications on the mobile devices of up to five designated recipients. Its Dexcom Real-Time API enables invited third-party developers to integrate real-time CGM data into their digital health applications and devices. Its other products include Dexcom ONE and Dexcom G7.</v>
     <v>7500</v>
@@ -1180,25 +1178,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6340 Sequence Dr, SAN DIEGO, CA, 92121 US</v>
-    <v>123.43</v>
+    <v>128.9</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45057.97827078672</v>
+    <v>45106.992684953126</v>
     <v>0</v>
-    <v>119.76</v>
-    <v>46931042092</v>
+    <v>125.82</v>
+    <v>49594098664</v>
     <v>DEXCOM, INC.</v>
     <v>DEXCOM, INC.</v>
-    <v>122.89</v>
-    <v>177.61709999999999</v>
-    <v>122.57</v>
-    <v>121.07</v>
-    <v>121.71</v>
+    <v>126.57</v>
+    <v>185.39879999999999</v>
+    <v>126.42</v>
+    <v>127.94</v>
     <v>387635600</v>
     <v>DXCM</v>
     <v>DEXCOM, INC. (XNAS:DXCM)</v>
-    <v>1730122</v>
-    <v>2264572</v>
+    <v>8</v>
+    <v>3012878</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1230,8 +1227,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1252,7 +1247,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1269,7 +1263,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1280,16 +1274,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1355,19 +1346,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1412,9 +1397,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1422,9 +1404,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1786,10 +1765,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA86" sqref="AA86"/>
+      <selection pane="bottomRight" activeCell="AB89" sqref="AB89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3243,15 +3222,15 @@
       </c>
       <c r="AE16" s="29">
         <f>AF101/X3</f>
-        <v>16.128614369372464</v>
+        <v>17.043816985359818</v>
       </c>
       <c r="AF16" s="29">
         <f>AF101/X28</f>
-        <v>137.54701668229777</v>
+        <v>145.35198905041031</v>
       </c>
       <c r="AG16" s="30">
         <f>AF101/X106</f>
-        <v>154.02376794223827</v>
+        <v>162.76369761732852</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -8301,10 +8280,10 @@
       <c r="X83" s="1">
         <v>49300000</v>
       </c>
-      <c r="AE83" s="55" t="s">
+      <c r="AE83" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="AF83" s="56"/>
+      <c r="AF83" s="61"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8379,10 +8358,10 @@
       <c r="X84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE84" s="57" t="s">
+      <c r="AE84" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="AF84" s="58"/>
+      <c r="AF84" s="63"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9128,10 +9107,10 @@
       <c r="X93" s="1">
         <v>-14300000</v>
       </c>
-      <c r="AE93" s="57" t="s">
+      <c r="AE93" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="AF93" s="58"/>
+      <c r="AF93" s="63"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9289,9 +9268,9 @@
       <c r="AE95" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AF95" s="61" cm="1">
+      <c r="AF95" s="55" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.1433</v>
+        <v>1.1449</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -9452,7 +9431,7 @@
       </c>
       <c r="AF97" s="35">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.0169065000000007E-2</v>
+        <v>9.0237945000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9528,10 +9507,10 @@
       <c r="X98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE98" s="57" t="s">
+      <c r="AE98" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AF98" s="58"/>
+      <c r="AF98" s="63"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9692,7 +9671,7 @@
       </c>
       <c r="AF100" s="33">
         <f>AF99/AF103</f>
-        <v>5.740218891375734E-2</v>
+        <v>5.4487810264902924E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -9773,7 +9752,7 @@
       </c>
       <c r="AF101" s="48" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>46931042092</v>
+        <v>49594098664</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -9854,7 +9833,7 @@
       </c>
       <c r="AF102" s="33">
         <f>AF101/AF103</f>
-        <v>0.94259781108624263</v>
+        <v>0.9455121897350971</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -9935,7 +9914,7 @@
       </c>
       <c r="AF103" s="37">
         <f>AF99+AF101</f>
-        <v>49789042092</v>
+        <v>52452098664</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10011,10 +9990,10 @@
       <c r="X104" s="11">
         <v>643300000</v>
       </c>
-      <c r="AE104" s="57" t="s">
+      <c r="AE104" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="AF104" s="58"/>
+      <c r="AF104" s="63"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10120,7 +10099,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>8.5319325506478277E-2</v>
+        <v>8.5630679533536425E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10196,23 +10175,23 @@
       <c r="X106" s="1">
         <v>304700000</v>
       </c>
-      <c r="Y106" s="62">
+      <c r="Y106" s="56">
         <f>X106*(1+$AF$106)</f>
         <v>358849197.17113149</v>
       </c>
-      <c r="Z106" s="62">
+      <c r="Z106" s="56">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
         <v>422621418.80658221</v>
       </c>
-      <c r="AA106" s="62">
+      <c r="AA106" s="56">
         <f t="shared" si="9"/>
         <v>497726802.90799659</v>
       </c>
-      <c r="AB106" s="62">
+      <c r="AB106" s="56">
         <f t="shared" si="9"/>
         <v>586179401.49028087</v>
       </c>
-      <c r="AC106" s="62">
+      <c r="AC106" s="56">
         <f t="shared" si="9"/>
         <v>690351190.09859419</v>
       </c>
@@ -10258,7 +10237,7 @@
       <c r="AB107" s="38"/>
       <c r="AC107" s="41">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>11731065689.304863</v>
+        <v>11670823670.377325</v>
       </c>
       <c r="AD107" s="42" t="s">
         <v>149</v>
@@ -10289,7 +10268,7 @@
       </c>
       <c r="AC108" s="41">
         <f>AC107+AC106</f>
-        <v>12421416879.403458</v>
+        <v>12361174860.47592</v>
       </c>
       <c r="AD108" s="42" t="s">
         <v>145</v>
@@ -10299,14 +10278,14 @@
       </c>
       <c r="AF108" s="46">
         <f>AF105</f>
-        <v>8.5319325506478277E-2</v>
+        <v>8.5630679533536425E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="59" t="s">
+      <c r="Y109" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="Z109" s="60"/>
+      <c r="Z109" s="59"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="Y110" s="47" t="s">
@@ -10314,7 +10293,7 @@
       </c>
       <c r="Z110" s="48">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>9749891973.3992558</v>
+        <v>9697002999.6006908</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10341,7 +10320,7 @@
       </c>
       <c r="Z113" s="48">
         <f>Z110+Z111-Z112</f>
-        <v>9348091973.3992558</v>
+        <v>9295202999.6006908</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -10359,16 +10338,16 @@
       </c>
       <c r="Z115" s="51">
         <f>Z113/Z114</f>
-        <v>17.935603793024679</v>
+        <v>17.834129002043799</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
       <c r="Y116" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="Z116" s="63" cm="1">
+      <c r="Z116" s="57" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price")</f>
-        <v>121.07</v>
+        <v>127.94</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -10377,7 +10356,7 @@
       </c>
       <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>-0.85185757171037679</v>
+        <v>-0.86060552601185081</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
